--- a/web/patternxsl/pattern.xlsx
+++ b/web/patternxsl/pattern.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Расписание</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">Продолжительность рабочего времени на маршруте:  </t>
+  </si>
+  <si>
+    <t>Луганск Центральная касса</t>
   </si>
 </sst>
 </file>
@@ -313,6 +316,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,8 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -642,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:L40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,45 +822,45 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="36" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
@@ -875,9 +878,9 @@
       <c r="E16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="36"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="17" t="s">
         <v>8</v>
       </c>
@@ -916,7 +919,9 @@
       <c r="F18" s="21">
         <v>8</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="H18" s="10"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1356,34 +1361,34 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="23"/>
@@ -1399,18 +1404,18 @@
       <c r="L52" s="23"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
       <c r="L53" s="20"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -1724,21 +1729,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="C119:L119"/>
-    <mergeCell ref="C114:K114"/>
-    <mergeCell ref="C118:L118"/>
-    <mergeCell ref="C117:L117"/>
-    <mergeCell ref="C77:K77"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="C113:K113"/>
-    <mergeCell ref="B50:L50"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C82:L82"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="C83:L83"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C11:L11"/>
@@ -1750,6 +1740,21 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:L15"/>
+    <mergeCell ref="C77:K77"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="C113:K113"/>
+    <mergeCell ref="B50:L50"/>
+    <mergeCell ref="C78:K78"/>
+    <mergeCell ref="C82:L82"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="C79:K79"/>
+    <mergeCell ref="C83:L83"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="C119:L119"/>
+    <mergeCell ref="C114:K114"/>
+    <mergeCell ref="C118:L118"/>
+    <mergeCell ref="C117:L117"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/patternxsl/pattern.xlsx
+++ b/web/patternxsl/pattern.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Первомайск " sheetId="71" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="72" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Расписание</t>
   </si>
@@ -83,16 +82,13 @@
     <t xml:space="preserve">Начальник УТУиОП </t>
   </si>
   <si>
-    <t xml:space="preserve">            движения автотранспорта по маршруту  №  Луганск Центральная касса-Первомайск ЦПС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Протяженность маршрута  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продолжительность рабочего времени на маршруте:  </t>
-  </si>
-  <si>
     <t>Луганск Центральная касса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -138,7 +134,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,13 +143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,21 +284,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,32 +306,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -645,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +746,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -822,45 +812,45 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="38" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:13" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
@@ -878,9 +868,9 @@
       <c r="E16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="38"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="17" t="s">
         <v>8</v>
       </c>
@@ -916,11 +906,9 @@
       <c r="C18" s="7"/>
       <c r="D18" s="10"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="21">
-        <v>8</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>25</v>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="7"/>
@@ -949,7 +937,7 @@
       <c r="D20" s="10"/>
       <c r="E20" s="7"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="10"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -963,7 +951,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="7"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="10"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -977,7 +965,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="7"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="10"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -991,7 +979,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="7"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1005,7 +993,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="7"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1019,7 +1007,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="7"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="26"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1033,7 +1021,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="7"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="26"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1047,7 +1035,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="7"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="26"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="10"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -1061,7 +1049,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="7"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="26"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1075,7 +1063,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="7"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="26"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="10"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -1089,7 +1077,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="7"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="26"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="10"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -1103,7 +1091,7 @@
       <c r="D31" s="10"/>
       <c r="E31" s="7"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="26"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="10"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1117,7 +1105,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="7"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="26"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="10"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1131,7 +1119,7 @@
       <c r="D33" s="10"/>
       <c r="E33" s="7"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="26"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="10"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1145,7 +1133,7 @@
       <c r="D34" s="10"/>
       <c r="E34" s="7"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="26"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="10"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -1159,7 +1147,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="7"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="10"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -1173,7 +1161,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="7"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="26"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="10"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -1187,7 +1175,7 @@
       <c r="D37" s="10"/>
       <c r="E37" s="7"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="26"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="10"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -1201,7 +1189,7 @@
       <c r="D38" s="10"/>
       <c r="E38" s="7"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="26"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="10"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -1215,7 +1203,7 @@
       <c r="D39" s="10"/>
       <c r="E39" s="7"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="26"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="10"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -1229,7 +1217,7 @@
       <c r="D40" s="10"/>
       <c r="E40" s="7"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="26"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="10"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -1243,7 +1231,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="7"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="26"/>
+      <c r="G41" s="22"/>
       <c r="H41" s="10"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -1257,7 +1245,7 @@
       <c r="D42" s="10"/>
       <c r="E42" s="7"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="26"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="10"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -1285,7 +1273,7 @@
       <c r="D44" s="10"/>
       <c r="E44" s="7"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="26"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="10"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -1299,7 +1287,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="24"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="11"/>
       <c r="I45" s="15"/>
       <c r="J45" s="7"/>
@@ -1325,7 +1313,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="12"/>
       <c r="I47" s="15"/>
       <c r="J47" s="7"/>
@@ -1339,9 +1327,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="22">
-        <v>10</v>
-      </c>
+      <c r="H48" s="24"/>
       <c r="I48" s="15"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
@@ -1361,61 +1347,59 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
+      <c r="B50" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
       <c r="L53" s="20"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -1729,6 +1713,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="C119:L119"/>
+    <mergeCell ref="C114:K114"/>
+    <mergeCell ref="C118:L118"/>
+    <mergeCell ref="C117:L117"/>
+    <mergeCell ref="C77:K77"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="C113:K113"/>
+    <mergeCell ref="B50:L50"/>
+    <mergeCell ref="C78:K78"/>
+    <mergeCell ref="C82:L82"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="C79:K79"/>
+    <mergeCell ref="C83:L83"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C11:L11"/>
@@ -1740,36 +1739,9 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="C77:K77"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="C113:K113"/>
-    <mergeCell ref="B50:L50"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C82:L82"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="C83:L83"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="C119:L119"/>
-    <mergeCell ref="C114:K114"/>
-    <mergeCell ref="C118:L118"/>
-    <mergeCell ref="C117:L117"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/web/patternxsl/pattern.xlsx
+++ b/web/patternxsl/pattern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Расписание</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">Начальник УТУиОП </t>
-  </si>
-  <si>
-    <t>Луганск Центральная касса</t>
   </si>
   <si>
     <t xml:space="preserve">            </t>
@@ -306,6 +303,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -330,8 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -636,7 +633,7 @@
   <dimension ref="A2:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:L51"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +743,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -812,45 +809,45 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="36" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
@@ -868,9 +865,9 @@
       <c r="E16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="36"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="17" t="s">
         <v>8</v>
       </c>
@@ -907,9 +904,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="7"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="G18" s="25"/>
       <c r="H18" s="10"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1347,32 +1342,32 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
+      <c r="B50" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="21"/>
@@ -1388,18 +1383,18 @@
       <c r="L52" s="21"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
       <c r="L53" s="20"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -1713,21 +1708,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="C119:L119"/>
-    <mergeCell ref="C114:K114"/>
-    <mergeCell ref="C118:L118"/>
-    <mergeCell ref="C117:L117"/>
-    <mergeCell ref="C77:K77"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="C113:K113"/>
-    <mergeCell ref="B50:L50"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C82:L82"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="C83:L83"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C11:L11"/>
@@ -1739,6 +1719,21 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:L15"/>
+    <mergeCell ref="C77:K77"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="C113:K113"/>
+    <mergeCell ref="B50:L50"/>
+    <mergeCell ref="C78:K78"/>
+    <mergeCell ref="C82:L82"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="C79:K79"/>
+    <mergeCell ref="C83:L83"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="C119:L119"/>
+    <mergeCell ref="C114:K114"/>
+    <mergeCell ref="C118:L118"/>
+    <mergeCell ref="C117:L117"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/patternxsl/pattern.xlsx
+++ b/web/patternxsl/pattern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Расписание</t>
   </si>
@@ -85,7 +85,16 @@
     <t xml:space="preserve">            </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Место и время перерыва:</t>
+  </si>
+  <si>
+    <t>Место и время отстоя:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Протяженность маршрута: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продолжительность рабочего времени на маршруте:  </t>
   </si>
 </sst>
 </file>
@@ -233,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,49 +271,38 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,27 +628,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M119"/>
+  <dimension ref="A2:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6" style="19" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="6" style="19" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="13" style="19" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="5.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="6" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="13" style="16" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -740,149 +738,149 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="18"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="38" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="17" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -898,13 +896,13 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="7"/>
       <c r="D18" s="10"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="10"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -912,8 +910,8 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="7"/>
       <c r="D19" s="10"/>
       <c r="E19" s="7"/>
@@ -926,330 +924,330 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="7"/>
       <c r="D20" s="10"/>
       <c r="E20" s="7"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="22"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="10"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+    <row r="21" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="7"/>
       <c r="D21" s="10"/>
       <c r="E21" s="7"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="22"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="10"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+    <row r="22" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="7"/>
       <c r="D22" s="10"/>
       <c r="E22" s="7"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="22"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="10"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+    <row r="23" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="7"/>
       <c r="D23" s="10"/>
       <c r="E23" s="7"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="22"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
+    <row r="24" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="7"/>
       <c r="D24" s="10"/>
       <c r="E24" s="7"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="22"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
+    <row r="25" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="7"/>
       <c r="D25" s="10"/>
       <c r="E25" s="7"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="22"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
+    <row r="26" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="7"/>
       <c r="D26" s="10"/>
       <c r="E26" s="7"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="22"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
+    <row r="27" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="7"/>
       <c r="D27" s="10"/>
       <c r="E27" s="7"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="22"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="10"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+    <row r="28" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="7"/>
       <c r="D28" s="10"/>
       <c r="E28" s="7"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="22"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
+    <row r="29" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="7"/>
       <c r="D29" s="10"/>
       <c r="E29" s="7"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="22"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="10"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
+    <row r="30" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="7"/>
       <c r="D30" s="10"/>
       <c r="E30" s="7"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="22"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="10"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
+    <row r="31" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="7"/>
       <c r="D31" s="10"/>
       <c r="E31" s="7"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="22"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="10"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
+    <row r="32" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="7"/>
       <c r="D32" s="10"/>
       <c r="E32" s="7"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="22"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="10"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
+    <row r="33" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="7"/>
       <c r="D33" s="10"/>
       <c r="E33" s="7"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="22"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="10"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
+    <row r="34" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="7"/>
       <c r="D34" s="10"/>
       <c r="E34" s="7"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="22"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="10"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
+    <row r="35" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="7"/>
       <c r="D35" s="10"/>
       <c r="E35" s="7"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="22"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="10"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
+    <row r="36" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="7"/>
       <c r="D36" s="10"/>
       <c r="E36" s="7"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="22"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="10"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
+    <row r="37" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="7"/>
       <c r="D37" s="10"/>
       <c r="E37" s="7"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="22"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="10"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
+    <row r="38" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="7"/>
       <c r="D38" s="10"/>
       <c r="E38" s="7"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="22"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="10"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
+    <row r="39" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="7"/>
       <c r="D39" s="10"/>
       <c r="E39" s="7"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="22"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="10"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
+    <row r="40" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="7"/>
       <c r="D40" s="10"/>
       <c r="E40" s="7"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="22"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="10"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
+    <row r="41" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="7"/>
       <c r="D41" s="10"/>
       <c r="E41" s="7"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="22"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="10"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
+    <row r="42" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="7"/>
       <c r="D42" s="10"/>
       <c r="E42" s="7"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="22"/>
+      <c r="G42" s="18"/>
       <c r="H42" s="10"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
+    <row r="43" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="7"/>
       <c r="D43" s="10"/>
       <c r="E43" s="7"/>
@@ -1261,156 +1259,245 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
+    <row r="44" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="7"/>
       <c r="D44" s="10"/>
       <c r="E44" s="7"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="22"/>
+      <c r="G44" s="18"/>
       <c r="H44" s="10"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="7"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="15"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="15"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="30" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="20"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="24"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="L60" s="24"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
@@ -1422,7 +1509,6 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
@@ -1435,7 +1521,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
@@ -1460,7 +1546,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="L73" s="5"/>
     </row>
     <row r="74" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
@@ -1474,90 +1560,95 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L75" s="2"/>
+    </row>
     <row r="76" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F76" s="6"/>
       <c r="G76" s="3"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
     </row>
     <row r="81" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
     </row>
     <row r="82" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L84" s="22"/>
     </row>
     <row r="106" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
@@ -1569,7 +1660,6 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
@@ -1582,7 +1672,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
+      <c r="L107" s="2"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
@@ -1607,7 +1697,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
+      <c r="L109" s="5"/>
     </row>
     <row r="110" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
@@ -1621,93 +1711,101 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L111" s="2"/>
+    </row>
     <row r="112" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F112" s="6"/>
       <c r="G112" s="3"/>
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
     </row>
     <row r="114" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
     </row>
     <row r="115" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
     </row>
     <row r="116" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
     </row>
     <row r="117" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="28"/>
-      <c r="L117" s="28"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
     </row>
     <row r="118" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="28"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
     </row>
     <row r="119" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="28"/>
-      <c r="J119" s="28"/>
-      <c r="K119" s="28"/>
-      <c r="L119" s="28"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+    </row>
+    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L120" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="20">
+    <mergeCell ref="B54:L54"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="B58:K58"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C11:L11"/>
@@ -1720,20 +1818,11 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="C77:K77"/>
-    <mergeCell ref="C81:L81"/>
     <mergeCell ref="C113:K113"/>
-    <mergeCell ref="B50:L50"/>
     <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C82:L82"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="B53:K53"/>
     <mergeCell ref="C79:K79"/>
-    <mergeCell ref="C83:L83"/>
     <mergeCell ref="C115:K115"/>
-    <mergeCell ref="C119:L119"/>
     <mergeCell ref="C114:K114"/>
-    <mergeCell ref="C118:L118"/>
-    <mergeCell ref="C117:L117"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
